--- a/cbs.xlsx
+++ b/cbs.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/ljdijkstra_tudelft_nl/Documents/LRJR4Q1/Agent_Based_Modelling/Assignment_2_Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_D2A1EDAAEDF80F2D4F86464EA20A541A981CF109" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C9BAFA-A24D-4FA1-8D1C-7C9C78B9E675}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_D2A1EDAAEDF80F2D4F86464EA20A541A981CF109" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D40B25-4DEB-4E80-A847-A8A740C69A0E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High demand" sheetId="1" r:id="rId1"/>
     <sheet name="Low demand" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Simulation run</t>
   </si>
@@ -411,9 +410,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="C102" sqref="C102:G102"/>
     </sheetView>
   </sheetViews>
@@ -3355,28 +3354,6 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>630.30999999999995</v>
-      </c>
-      <c r="D102">
-        <f t="shared" ref="D102:G102" si="0">AVERAGE(D2:D101)</f>
-        <v>15.72</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="0"/>
-        <v>2.79</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="0"/>
-        <v>0.39300000000000018</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="0"/>
-        <v>14.27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3384,9 +3361,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="C102" sqref="C102:H102"/>
     </sheetView>
   </sheetViews>
@@ -6330,2976 +6307,6 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>327.27</v>
-      </c>
-      <c r="D102">
-        <f t="shared" ref="D102:H102" si="0">AVERAGE(D2:D101)</f>
-        <v>5.38</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="0"/>
-        <v>1.82</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="0"/>
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="0"/>
-        <v>8.48</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="0"/>
-        <v>0.15756999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>648</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0.25</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="I2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>618</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>0.35</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>632</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="I4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>664</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>0.4</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="I5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>578</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>0.25</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="I6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>591</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>0.52</v>
-      </c>
-      <c r="I7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>615</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.375</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>1.694</v>
-      </c>
-      <c r="I8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>667</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>1.4390000000000001</v>
-      </c>
-      <c r="I9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>589</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>0.65</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <v>1.897</v>
-      </c>
-      <c r="I10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>622</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>0.35</v>
-      </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="I11">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>638</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>0.4</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="I12">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>584</v>
-      </c>
-      <c r="D13">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="G13">
-        <v>18</v>
-      </c>
-      <c r="H13">
-        <v>2.4409999999999998</v>
-      </c>
-      <c r="I13">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>639</v>
-      </c>
-      <c r="D14">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
-      <c r="H14">
-        <v>1.885</v>
-      </c>
-      <c r="I14">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>637</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="I15">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <v>596</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.15</v>
-      </c>
-      <c r="G16">
-        <v>12</v>
-      </c>
-      <c r="H16">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="I16">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>652</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>0.4</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>2.8540000000000001</v>
-      </c>
-      <c r="I17">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>627</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="I18">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>621</v>
-      </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G19">
-        <v>12</v>
-      </c>
-      <c r="H19">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="I19">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>694</v>
-      </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.35</v>
-      </c>
-      <c r="G20">
-        <v>15</v>
-      </c>
-      <c r="H20">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="I20">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>40</v>
-      </c>
-      <c r="C21">
-        <v>589</v>
-      </c>
-      <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.375</v>
-      </c>
-      <c r="G21">
-        <v>15</v>
-      </c>
-      <c r="H21">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="I21">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>599</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G22">
-        <v>15</v>
-      </c>
-      <c r="H22">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="I22">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>614</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.2</v>
-      </c>
-      <c r="G23">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I23">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>40</v>
-      </c>
-      <c r="C24">
-        <v>616</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.15</v>
-      </c>
-      <c r="G24">
-        <v>14</v>
-      </c>
-      <c r="H24">
-        <v>2.431</v>
-      </c>
-      <c r="I24">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>564</v>
-      </c>
-      <c r="D25">
-        <v>14</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.35</v>
-      </c>
-      <c r="G25">
-        <v>12</v>
-      </c>
-      <c r="H25">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="I25">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>604</v>
-      </c>
-      <c r="D26">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3</v>
-      </c>
-      <c r="G26">
-        <v>15</v>
-      </c>
-      <c r="H26">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="I26">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <v>549</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G27">
-        <v>12</v>
-      </c>
-      <c r="H27">
-        <v>0.19</v>
-      </c>
-      <c r="I27">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>646</v>
-      </c>
-      <c r="D28">
-        <v>14</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>0.35</v>
-      </c>
-      <c r="G28">
-        <v>16</v>
-      </c>
-      <c r="H28">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="I28">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>609</v>
-      </c>
-      <c r="D29">
-        <v>20</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
-      <c r="G29">
-        <v>12</v>
-      </c>
-      <c r="H29">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="I29">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>40</v>
-      </c>
-      <c r="C30">
-        <v>616</v>
-      </c>
-      <c r="D30">
-        <v>17</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="G30">
-        <v>13</v>
-      </c>
-      <c r="H30">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="I30">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>560</v>
-      </c>
-      <c r="D31">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>0.375</v>
-      </c>
-      <c r="G31">
-        <v>13</v>
-      </c>
-      <c r="H31">
-        <v>1.1040000000000001</v>
-      </c>
-      <c r="I31">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>40</v>
-      </c>
-      <c r="C32">
-        <v>662</v>
-      </c>
-      <c r="D32">
-        <v>13</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G32">
-        <v>14</v>
-      </c>
-      <c r="H32">
-        <v>2.262</v>
-      </c>
-      <c r="I32">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>40</v>
-      </c>
-      <c r="C33">
-        <v>670</v>
-      </c>
-      <c r="D33">
-        <v>28</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>0.7</v>
-      </c>
-      <c r="G33">
-        <v>17</v>
-      </c>
-      <c r="H33">
-        <v>7.3869999999999996</v>
-      </c>
-      <c r="I33">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>645</v>
-      </c>
-      <c r="D34">
-        <v>17</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="G34">
-        <v>13</v>
-      </c>
-      <c r="H34">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="I34">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>599</v>
-      </c>
-      <c r="D35">
-        <v>15</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.375</v>
-      </c>
-      <c r="G35">
-        <v>14</v>
-      </c>
-      <c r="H35">
-        <v>2.8940000000000001</v>
-      </c>
-      <c r="I35">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>40</v>
-      </c>
-      <c r="C36">
-        <v>769</v>
-      </c>
-      <c r="D36">
-        <v>29</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="G36">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <v>5.133</v>
-      </c>
-      <c r="I36">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>40</v>
-      </c>
-      <c r="C37">
-        <v>664</v>
-      </c>
-      <c r="D37">
-        <v>22</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G37">
-        <v>15</v>
-      </c>
-      <c r="H37">
-        <v>1.343</v>
-      </c>
-      <c r="I37">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>712</v>
-      </c>
-      <c r="D38">
-        <v>36</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>0.9</v>
-      </c>
-      <c r="G38">
-        <v>15</v>
-      </c>
-      <c r="H38">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="I38">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>522</v>
-      </c>
-      <c r="D39">
-        <v>14</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>0.35</v>
-      </c>
-      <c r="G39">
-        <v>12</v>
-      </c>
-      <c r="H39">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="I39">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>614</v>
-      </c>
-      <c r="D40">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0.25</v>
-      </c>
-      <c r="G40">
-        <v>14</v>
-      </c>
-      <c r="H40">
-        <v>0.749</v>
-      </c>
-      <c r="I40">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>578</v>
-      </c>
-      <c r="D41">
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0.25</v>
-      </c>
-      <c r="G41">
-        <v>13</v>
-      </c>
-      <c r="H41">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="I41">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>675</v>
-      </c>
-      <c r="D42">
-        <v>28</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42">
-        <v>0.7</v>
-      </c>
-      <c r="G42">
-        <v>16</v>
-      </c>
-      <c r="H42">
-        <v>7.7359999999999998</v>
-      </c>
-      <c r="I42">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>40</v>
-      </c>
-      <c r="C43">
-        <v>724</v>
-      </c>
-      <c r="D43">
-        <v>24</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>0.6</v>
-      </c>
-      <c r="G43">
-        <v>16</v>
-      </c>
-      <c r="H43">
-        <v>3.9830000000000001</v>
-      </c>
-      <c r="I43">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="C44">
-        <v>597</v>
-      </c>
-      <c r="D44">
-        <v>9</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G44">
-        <v>14</v>
-      </c>
-      <c r="H44">
-        <v>2.1459999999999999</v>
-      </c>
-      <c r="I44">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>40</v>
-      </c>
-      <c r="C45">
-        <v>639</v>
-      </c>
-      <c r="D45">
-        <v>15</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>0.375</v>
-      </c>
-      <c r="G45">
-        <v>17</v>
-      </c>
-      <c r="H45">
-        <v>1.036</v>
-      </c>
-      <c r="I45">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>40</v>
-      </c>
-      <c r="C46">
-        <v>642</v>
-      </c>
-      <c r="D46">
-        <v>18</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <v>0.45</v>
-      </c>
-      <c r="G46">
-        <v>14</v>
-      </c>
-      <c r="H46">
-        <v>1.8</v>
-      </c>
-      <c r="I46">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>40</v>
-      </c>
-      <c r="C47">
-        <v>676</v>
-      </c>
-      <c r="D47">
-        <v>28</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47">
-        <v>0.7</v>
-      </c>
-      <c r="G47">
-        <v>12</v>
-      </c>
-      <c r="H47">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="I47">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>40</v>
-      </c>
-      <c r="C48">
-        <v>671</v>
-      </c>
-      <c r="D48">
-        <v>24</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48">
-        <v>0.6</v>
-      </c>
-      <c r="G48">
-        <v>16</v>
-      </c>
-      <c r="H48">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="I48">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <v>578</v>
-      </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>0.25</v>
-      </c>
-      <c r="G49">
-        <v>14</v>
-      </c>
-      <c r="H49">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="I49">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>40</v>
-      </c>
-      <c r="C50">
-        <v>722</v>
-      </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0.25</v>
-      </c>
-      <c r="G50">
-        <v>16</v>
-      </c>
-      <c r="H50">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="I50">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>40</v>
-      </c>
-      <c r="C51">
-        <v>611</v>
-      </c>
-      <c r="D51">
-        <v>13</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="F51">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G51">
-        <v>12</v>
-      </c>
-      <c r="H51">
-        <v>0.313</v>
-      </c>
-      <c r="I51">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>40</v>
-      </c>
-      <c r="C52">
-        <v>666</v>
-      </c>
-      <c r="D52">
-        <v>16</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>0.4</v>
-      </c>
-      <c r="G52">
-        <v>17</v>
-      </c>
-      <c r="H52">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="I52">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>40</v>
-      </c>
-      <c r="C53">
-        <v>666</v>
-      </c>
-      <c r="D53">
-        <v>20</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-      <c r="F53">
-        <v>0.5</v>
-      </c>
-      <c r="G53">
-        <v>16</v>
-      </c>
-      <c r="H53">
-        <v>1.512</v>
-      </c>
-      <c r="I53">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>40</v>
-      </c>
-      <c r="C54">
-        <v>639</v>
-      </c>
-      <c r="D54">
-        <v>15</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-      <c r="F54">
-        <v>0.375</v>
-      </c>
-      <c r="G54">
-        <v>13</v>
-      </c>
-      <c r="H54">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="I54">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>40</v>
-      </c>
-      <c r="C55">
-        <v>617</v>
-      </c>
-      <c r="D55">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G55">
-        <v>15</v>
-      </c>
-      <c r="H55">
-        <v>1.667</v>
-      </c>
-      <c r="I55">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>40</v>
-      </c>
-      <c r="C56">
-        <v>699</v>
-      </c>
-      <c r="D56">
-        <v>22</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-      <c r="F56">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G56">
-        <v>15</v>
-      </c>
-      <c r="H56">
-        <v>2.5870000000000002</v>
-      </c>
-      <c r="I56">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>40</v>
-      </c>
-      <c r="C57">
-        <v>555</v>
-      </c>
-      <c r="D57">
-        <v>15</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="F57">
-        <v>0.375</v>
-      </c>
-      <c r="G57">
-        <v>13</v>
-      </c>
-      <c r="H57">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="I57">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>40</v>
-      </c>
-      <c r="C58">
-        <v>590</v>
-      </c>
-      <c r="D58">
-        <v>18</v>
-      </c>
-      <c r="E58">
-        <v>4</v>
-      </c>
-      <c r="F58">
-        <v>0.45</v>
-      </c>
-      <c r="G58">
-        <v>16</v>
-      </c>
-      <c r="H58">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="I58">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>40</v>
-      </c>
-      <c r="C59">
-        <v>678</v>
-      </c>
-      <c r="D59">
-        <v>20</v>
-      </c>
-      <c r="E59">
-        <v>5</v>
-      </c>
-      <c r="F59">
-        <v>0.5</v>
-      </c>
-      <c r="G59">
-        <v>15</v>
-      </c>
-      <c r="H59">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="I59">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>40</v>
-      </c>
-      <c r="C60">
-        <v>583</v>
-      </c>
-      <c r="D60">
-        <v>13</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G60">
-        <v>13</v>
-      </c>
-      <c r="H60">
-        <v>0.443</v>
-      </c>
-      <c r="I60">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>40</v>
-      </c>
-      <c r="C61">
-        <v>684</v>
-      </c>
-      <c r="D61">
-        <v>16</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>0.4</v>
-      </c>
-      <c r="G61">
-        <v>14</v>
-      </c>
-      <c r="H61">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="I61">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>40</v>
-      </c>
-      <c r="C62">
-        <v>644</v>
-      </c>
-      <c r="D62">
-        <v>20</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <v>0.5</v>
-      </c>
-      <c r="G62">
-        <v>14</v>
-      </c>
-      <c r="H62">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="I62">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>40</v>
-      </c>
-      <c r="C63">
-        <v>652</v>
-      </c>
-      <c r="D63">
-        <v>14</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0.35</v>
-      </c>
-      <c r="G63">
-        <v>15</v>
-      </c>
-      <c r="H63">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="I63">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>40</v>
-      </c>
-      <c r="C64">
-        <v>614</v>
-      </c>
-      <c r="D64">
-        <v>15</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="F64">
-        <v>0.375</v>
-      </c>
-      <c r="G64">
-        <v>14</v>
-      </c>
-      <c r="H64">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="I64">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>40</v>
-      </c>
-      <c r="C65">
-        <v>604</v>
-      </c>
-      <c r="D65">
-        <v>14</v>
-      </c>
-      <c r="E65">
-        <v>3</v>
-      </c>
-      <c r="F65">
-        <v>0.35</v>
-      </c>
-      <c r="G65">
-        <v>14</v>
-      </c>
-      <c r="H65">
-        <v>1.9019999999999999</v>
-      </c>
-      <c r="I65">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>40</v>
-      </c>
-      <c r="C66">
-        <v>627</v>
-      </c>
-      <c r="D66">
-        <v>17</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="G66">
-        <v>16</v>
-      </c>
-      <c r="H66">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="I66">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>40</v>
-      </c>
-      <c r="C67">
-        <v>683</v>
-      </c>
-      <c r="D67">
-        <v>21</v>
-      </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
-      <c r="F67">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="G67">
-        <v>17</v>
-      </c>
-      <c r="H67">
-        <v>1.8939999999999999</v>
-      </c>
-      <c r="I67">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>40</v>
-      </c>
-      <c r="C68">
-        <v>624</v>
-      </c>
-      <c r="D68">
-        <v>16</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>0.4</v>
-      </c>
-      <c r="G68">
-        <v>12</v>
-      </c>
-      <c r="H68">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="I68">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>40</v>
-      </c>
-      <c r="C69">
-        <v>608</v>
-      </c>
-      <c r="D69">
-        <v>20</v>
-      </c>
-      <c r="E69">
-        <v>4</v>
-      </c>
-      <c r="F69">
-        <v>0.5</v>
-      </c>
-      <c r="G69">
-        <v>13</v>
-      </c>
-      <c r="H69">
-        <v>1.9550000000000001</v>
-      </c>
-      <c r="I69">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>40</v>
-      </c>
-      <c r="C70">
-        <v>694</v>
-      </c>
-      <c r="D70">
-        <v>20</v>
-      </c>
-      <c r="E70">
-        <v>4</v>
-      </c>
-      <c r="F70">
-        <v>0.5</v>
-      </c>
-      <c r="G70">
-        <v>14</v>
-      </c>
-      <c r="H70">
-        <v>0.78</v>
-      </c>
-      <c r="I70">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>40</v>
-      </c>
-      <c r="C71">
-        <v>644</v>
-      </c>
-      <c r="D71">
-        <v>10</v>
-      </c>
-      <c r="E71">
-        <v>3</v>
-      </c>
-      <c r="F71">
-        <v>0.25</v>
-      </c>
-      <c r="G71">
-        <v>13</v>
-      </c>
-      <c r="H71">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I71">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>40</v>
-      </c>
-      <c r="C72">
-        <v>625</v>
-      </c>
-      <c r="D72">
-        <v>15</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72">
-        <v>0.375</v>
-      </c>
-      <c r="G72">
-        <v>16</v>
-      </c>
-      <c r="H72">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="I72">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>40</v>
-      </c>
-      <c r="C73">
-        <v>631</v>
-      </c>
-      <c r="D73">
-        <v>15</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73">
-        <v>0.375</v>
-      </c>
-      <c r="G73">
-        <v>13</v>
-      </c>
-      <c r="H73">
-        <v>2.2709999999999999</v>
-      </c>
-      <c r="I73">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>40</v>
-      </c>
-      <c r="C74">
-        <v>589</v>
-      </c>
-      <c r="D74">
-        <v>13</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G74">
-        <v>14</v>
-      </c>
-      <c r="H74">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="I74">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>40</v>
-      </c>
-      <c r="C75">
-        <v>629</v>
-      </c>
-      <c r="D75">
-        <v>9</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-      <c r="F75">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G75">
-        <v>15</v>
-      </c>
-      <c r="H75">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="I75">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>40</v>
-      </c>
-      <c r="C76">
-        <v>630</v>
-      </c>
-      <c r="D76">
-        <v>20</v>
-      </c>
-      <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76">
-        <v>0.5</v>
-      </c>
-      <c r="G76">
-        <v>15</v>
-      </c>
-      <c r="H76">
-        <v>3.1339999999999999</v>
-      </c>
-      <c r="I76">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>40</v>
-      </c>
-      <c r="C77">
-        <v>681</v>
-      </c>
-      <c r="D77">
-        <v>13</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-      <c r="F77">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G77">
-        <v>16</v>
-      </c>
-      <c r="H77">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="I77">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>40</v>
-      </c>
-      <c r="C78">
-        <v>636</v>
-      </c>
-      <c r="D78">
-        <v>18</v>
-      </c>
-      <c r="E78">
-        <v>3</v>
-      </c>
-      <c r="F78">
-        <v>0.45</v>
-      </c>
-      <c r="G78">
-        <v>17</v>
-      </c>
-      <c r="H78">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="I78">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>40</v>
-      </c>
-      <c r="C79">
-        <v>632</v>
-      </c>
-      <c r="D79">
-        <v>14</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-      <c r="F79">
-        <v>0.35</v>
-      </c>
-      <c r="G79">
-        <v>14</v>
-      </c>
-      <c r="H79">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="I79">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>40</v>
-      </c>
-      <c r="C80">
-        <v>637</v>
-      </c>
-      <c r="D80">
-        <v>20</v>
-      </c>
-      <c r="E80">
-        <v>4</v>
-      </c>
-      <c r="F80">
-        <v>0.5</v>
-      </c>
-      <c r="G80">
-        <v>15</v>
-      </c>
-      <c r="H80">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="I80">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>40</v>
-      </c>
-      <c r="C81">
-        <v>608</v>
-      </c>
-      <c r="D81">
-        <v>12</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81">
-        <v>0.3</v>
-      </c>
-      <c r="G81">
-        <v>14</v>
-      </c>
-      <c r="H81">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="I81">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>40</v>
-      </c>
-      <c r="C82">
-        <v>600</v>
-      </c>
-      <c r="D82">
-        <v>14</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>0.35</v>
-      </c>
-      <c r="G82">
-        <v>16</v>
-      </c>
-      <c r="H82">
-        <v>1.8740000000000001</v>
-      </c>
-      <c r="I82">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>40</v>
-      </c>
-      <c r="C83">
-        <v>621</v>
-      </c>
-      <c r="D83">
-        <v>15</v>
-      </c>
-      <c r="E83">
-        <v>4</v>
-      </c>
-      <c r="F83">
-        <v>0.375</v>
-      </c>
-      <c r="G83">
-        <v>12</v>
-      </c>
-      <c r="H83">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="I83">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>40</v>
-      </c>
-      <c r="C84">
-        <v>698</v>
-      </c>
-      <c r="D84">
-        <v>22</v>
-      </c>
-      <c r="E84">
-        <v>5</v>
-      </c>
-      <c r="F84">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G84">
-        <v>16</v>
-      </c>
-      <c r="H84">
-        <v>1.986</v>
-      </c>
-      <c r="I84">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>40</v>
-      </c>
-      <c r="C85">
-        <v>650</v>
-      </c>
-      <c r="D85">
-        <v>21</v>
-      </c>
-      <c r="E85">
-        <v>3</v>
-      </c>
-      <c r="F85">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="G85">
-        <v>14</v>
-      </c>
-      <c r="H85">
-        <v>1.593</v>
-      </c>
-      <c r="I85">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>40</v>
-      </c>
-      <c r="C86">
-        <v>606</v>
-      </c>
-      <c r="D86">
-        <v>8</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>0.2</v>
-      </c>
-      <c r="G86">
-        <v>12</v>
-      </c>
-      <c r="H86">
-        <v>0.51</v>
-      </c>
-      <c r="I86">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>40</v>
-      </c>
-      <c r="C87">
-        <v>573</v>
-      </c>
-      <c r="D87">
-        <v>9</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
-      <c r="F87">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G87">
-        <v>14</v>
-      </c>
-      <c r="H87">
-        <v>0.39</v>
-      </c>
-      <c r="I87">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>40</v>
-      </c>
-      <c r="C88">
-        <v>615</v>
-      </c>
-      <c r="D88">
-        <v>14</v>
-      </c>
-      <c r="E88">
-        <v>3</v>
-      </c>
-      <c r="F88">
-        <v>0.35</v>
-      </c>
-      <c r="G88">
-        <v>13</v>
-      </c>
-      <c r="H88">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="I88">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>40</v>
-      </c>
-      <c r="C89">
-        <v>691</v>
-      </c>
-      <c r="D89">
-        <v>18</v>
-      </c>
-      <c r="E89">
-        <v>3</v>
-      </c>
-      <c r="F89">
-        <v>0.45</v>
-      </c>
-      <c r="G89">
-        <v>14</v>
-      </c>
-      <c r="H89">
-        <v>1.756</v>
-      </c>
-      <c r="I89">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>40</v>
-      </c>
-      <c r="C90">
-        <v>563</v>
-      </c>
-      <c r="D90">
-        <v>11</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
-      </c>
-      <c r="F90">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="G90">
-        <v>12</v>
-      </c>
-      <c r="H90">
-        <v>1.5780000000000001</v>
-      </c>
-      <c r="I90">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>40</v>
-      </c>
-      <c r="C91">
-        <v>581</v>
-      </c>
-      <c r="D91">
-        <v>13</v>
-      </c>
-      <c r="E91">
-        <v>3</v>
-      </c>
-      <c r="F91">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G91">
-        <v>15</v>
-      </c>
-      <c r="H91">
-        <v>0.377</v>
-      </c>
-      <c r="I91">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>40</v>
-      </c>
-      <c r="C92">
-        <v>694</v>
-      </c>
-      <c r="D92">
-        <v>18</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-      <c r="F92">
-        <v>0.45</v>
-      </c>
-      <c r="G92">
-        <v>13</v>
-      </c>
-      <c r="H92">
-        <v>1.26</v>
-      </c>
-      <c r="I92">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>40</v>
-      </c>
-      <c r="C93">
-        <v>569</v>
-      </c>
-      <c r="D93">
-        <v>14</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
-      </c>
-      <c r="F93">
-        <v>0.35</v>
-      </c>
-      <c r="G93">
-        <v>14</v>
-      </c>
-      <c r="H93">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="I93">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>40</v>
-      </c>
-      <c r="C94">
-        <v>618</v>
-      </c>
-      <c r="D94">
-        <v>18</v>
-      </c>
-      <c r="E94">
-        <v>3</v>
-      </c>
-      <c r="F94">
-        <v>0.45</v>
-      </c>
-      <c r="G94">
-        <v>14</v>
-      </c>
-      <c r="H94">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="I94">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>40</v>
-      </c>
-      <c r="C95">
-        <v>663</v>
-      </c>
-      <c r="D95">
-        <v>13</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G95">
-        <v>15</v>
-      </c>
-      <c r="H95">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="I95">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>40</v>
-      </c>
-      <c r="C96">
-        <v>693</v>
-      </c>
-      <c r="D96">
-        <v>17</v>
-      </c>
-      <c r="E96">
-        <v>3</v>
-      </c>
-      <c r="F96">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="G96">
-        <v>15</v>
-      </c>
-      <c r="H96">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="I96">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>20</v>
-      </c>
-      <c r="C97">
-        <v>363</v>
-      </c>
-      <c r="D97">
-        <v>9</v>
-      </c>
-      <c r="E97">
-        <v>3</v>
-      </c>
-      <c r="F97">
-        <v>0.45</v>
-      </c>
-      <c r="G97">
-        <v>8</v>
-      </c>
-      <c r="H97">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="I97">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>20</v>
-      </c>
-      <c r="C98">
-        <v>310</v>
-      </c>
-      <c r="D98">
-        <v>4</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>0.2</v>
-      </c>
-      <c r="G98">
-        <v>8</v>
-      </c>
-      <c r="H98">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="I98">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>20</v>
-      </c>
-      <c r="C99">
-        <v>268</v>
-      </c>
-      <c r="D99">
-        <v>4</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>0.2</v>
-      </c>
-      <c r="G99">
-        <v>6</v>
-      </c>
-      <c r="H99">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="I99">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>20</v>
-      </c>
-      <c r="C100">
-        <v>287</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>0.15</v>
-      </c>
-      <c r="G100">
-        <v>8</v>
-      </c>
-      <c r="H100">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="I100">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>20</v>
-      </c>
-      <c r="C101">
-        <v>311</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
-        <v>0.05</v>
-      </c>
-      <c r="G101">
-        <v>8</v>
-      </c>
-      <c r="H101">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="I101">
-        <v>122</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
